--- a/public/data/lime/lime_table_equatorial_guinea.xlsx
+++ b/public/data/lime/lime_table_equatorial_guinea.xlsx
@@ -1626,13 +1626,13 @@
         <v>98</v>
       </c>
       <c r="D9" t="n">
-        <v>5.48</v>
+        <v>5.33</v>
       </c>
       <c r="E9" t="n">
-        <v>4.87</v>
+        <v>4.55</v>
       </c>
       <c r="F9" t="n">
-        <v>4.15</v>
+        <v>3.64</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1673,13 +1673,13 @@
         <v>99</v>
       </c>
       <c r="D10" t="n">
-        <v>5.06</v>
+        <v>4.85</v>
       </c>
       <c r="E10" t="n">
-        <v>4.34</v>
+        <v>3.89</v>
       </c>
       <c r="F10" t="n">
-        <v>3.5</v>
+        <v>2.77</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1720,13 +1720,13 @@
         <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>5.01</v>
+        <v>4.79</v>
       </c>
       <c r="E11" t="n">
-        <v>4.3</v>
+        <v>3.83</v>
       </c>
       <c r="F11" t="n">
-        <v>3.47</v>
+        <v>2.7</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1767,13 +1767,13 @@
         <v>101</v>
       </c>
       <c r="D12" t="n">
-        <v>4.08</v>
+        <v>3.84</v>
       </c>
       <c r="E12" t="n">
-        <v>3.35</v>
+        <v>2.83</v>
       </c>
       <c r="F12" t="n">
-        <v>2.5</v>
+        <v>1.67</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1814,13 +1814,13 @@
         <v>102</v>
       </c>
       <c r="D13" t="n">
-        <v>3.71</v>
+        <v>3.48</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>2.51</v>
       </c>
       <c r="F13" t="n">
-        <v>2.18</v>
+        <v>1.39</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1861,13 +1861,13 @@
         <v>104</v>
       </c>
       <c r="D14" t="n">
-        <v>4.43</v>
+        <v>4.3</v>
       </c>
       <c r="E14" t="n">
-        <v>3.84</v>
+        <v>3.56</v>
       </c>
       <c r="F14" t="n">
-        <v>3.15</v>
+        <v>2.7</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1908,13 +1908,13 @@
         <v>105</v>
       </c>
       <c r="D15" t="n">
-        <v>4.13</v>
+        <v>3.98</v>
       </c>
       <c r="E15" t="n">
-        <v>3.4</v>
+        <v>3.09</v>
       </c>
       <c r="F15" t="n">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1955,13 +1955,13 @@
         <v>106</v>
       </c>
       <c r="D16" t="n">
-        <v>4.03</v>
+        <v>3.86</v>
       </c>
       <c r="E16" t="n">
-        <v>3.42</v>
+        <v>3.07</v>
       </c>
       <c r="F16" t="n">
-        <v>2.7</v>
+        <v>2.14</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -2002,13 +2002,13 @@
         <v>107</v>
       </c>
       <c r="D17" t="n">
-        <v>4.47</v>
+        <v>4.35</v>
       </c>
       <c r="E17" t="n">
-        <v>3.84</v>
+        <v>3.57</v>
       </c>
       <c r="F17" t="n">
-        <v>3.1</v>
+        <v>2.65</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>108</v>
       </c>
       <c r="D18" t="n">
-        <v>4.05</v>
+        <v>3.92</v>
       </c>
       <c r="E18" t="n">
-        <v>3.43</v>
+        <v>3.15</v>
       </c>
       <c r="F18" t="n">
-        <v>2.71</v>
+        <v>2.25</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2096,13 +2096,13 @@
         <v>109</v>
       </c>
       <c r="D19" t="n">
-        <v>4.6</v>
+        <v>4.47</v>
       </c>
       <c r="E19" t="n">
-        <v>3.98</v>
+        <v>3.68</v>
       </c>
       <c r="F19" t="n">
-        <v>3.25</v>
+        <v>2.77</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>111</v>
       </c>
       <c r="D20" t="n">
-        <v>3.74</v>
+        <v>3.3</v>
       </c>
       <c r="E20" t="n">
-        <v>2.95</v>
+        <v>2.03</v>
       </c>
       <c r="F20" t="n">
-        <v>2.04</v>
+        <v>0.76</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2161,19 +2161,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>4.17</v>
+        <v>2.33</v>
       </c>
       <c r="K20" t="n">
-        <v>2.63</v>
+        <v>0.34</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -2190,13 +2190,13 @@
         <v>112</v>
       </c>
       <c r="D21" t="n">
-        <v>4.77</v>
+        <v>4.47</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>3.37</v>
       </c>
       <c r="F21" t="n">
-        <v>3.11</v>
+        <v>2.09</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2237,13 +2237,13 @@
         <v>113</v>
       </c>
       <c r="D22" t="n">
-        <v>6.32</v>
+        <v>5.71</v>
       </c>
       <c r="E22" t="n">
-        <v>5.47</v>
+        <v>4.16</v>
       </c>
       <c r="F22" t="n">
-        <v>4.47</v>
+        <v>2.72</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2255,13 +2255,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>9.7</v>
+        <v>7.05</v>
       </c>
       <c r="K22" t="n">
-        <v>7.61</v>
+        <v>1.9</v>
       </c>
       <c r="L22" t="n">
-        <v>5.17</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -2331,34 +2331,34 @@
         <v>115</v>
       </c>
       <c r="D24" t="n">
-        <v>3.49</v>
+        <v>3.02</v>
       </c>
       <c r="E24" t="n">
-        <v>2.66</v>
+        <v>1.79</v>
       </c>
       <c r="F24" t="n">
-        <v>1.71</v>
+        <v>0.73</v>
       </c>
       <c r="G24" t="n">
-        <v>3.03</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>4.99</v>
+        <v>2.11</v>
       </c>
       <c r="K24" t="n">
-        <v>3.11</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>116</v>
       </c>
       <c r="D25" t="n">
-        <v>5.18</v>
+        <v>4.69</v>
       </c>
       <c r="E25" t="n">
-        <v>4.35</v>
+        <v>3.33</v>
       </c>
       <c r="F25" t="n">
-        <v>3.37</v>
+        <v>2.14</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2425,13 +2425,13 @@
         <v>117</v>
       </c>
       <c r="D26" t="n">
-        <v>7.18</v>
+        <v>5.67</v>
       </c>
       <c r="E26" t="n">
-        <v>5.88</v>
+        <v>2.63</v>
       </c>
       <c r="F26" t="n">
-        <v>4.36</v>
+        <v>0.74</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2443,13 +2443,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>8.39</v>
+        <v>5.86</v>
       </c>
       <c r="K26" t="n">
-        <v>6.17</v>
+        <v>0.72</v>
       </c>
       <c r="L26" t="n">
-        <v>3.57</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -2472,13 +2472,13 @@
         <v>119</v>
       </c>
       <c r="D27" t="n">
-        <v>5.06</v>
+        <v>4.92</v>
       </c>
       <c r="E27" t="n">
-        <v>4.46</v>
+        <v>4.17</v>
       </c>
       <c r="F27" t="n">
-        <v>3.77</v>
+        <v>3.29</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2519,13 +2519,13 @@
         <v>120</v>
       </c>
       <c r="D28" t="n">
-        <v>4.24</v>
+        <v>4.07</v>
       </c>
       <c r="E28" t="n">
-        <v>3.57</v>
+        <v>3.21</v>
       </c>
       <c r="F28" t="n">
-        <v>2.8</v>
+        <v>2.21</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2566,13 +2566,13 @@
         <v>121</v>
       </c>
       <c r="D29" t="n">
-        <v>4.66</v>
+        <v>4.51</v>
       </c>
       <c r="E29" t="n">
-        <v>4</v>
+        <v>3.69</v>
       </c>
       <c r="F29" t="n">
-        <v>3.25</v>
+        <v>2.73</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2613,13 +2613,13 @@
         <v>122</v>
       </c>
       <c r="D30" t="n">
-        <v>4.26</v>
+        <v>4.1</v>
       </c>
       <c r="E30" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="F30" t="n">
-        <v>2.82</v>
+        <v>2.25</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2660,13 +2660,13 @@
         <v>123</v>
       </c>
       <c r="D31" t="n">
-        <v>4.86</v>
+        <v>4.71</v>
       </c>
       <c r="E31" t="n">
-        <v>4.21</v>
+        <v>3.88</v>
       </c>
       <c r="F31" t="n">
-        <v>3.44</v>
+        <v>2.92</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2707,13 +2707,13 @@
         <v>124</v>
       </c>
       <c r="D32" t="n">
-        <v>4.91</v>
+        <v>4.75</v>
       </c>
       <c r="E32" t="n">
-        <v>4.2</v>
+        <v>3.83</v>
       </c>
       <c r="F32" t="n">
-        <v>3.36</v>
+        <v>2.77</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>125</v>
       </c>
       <c r="D33" t="n">
-        <v>5.16</v>
+        <v>5.01</v>
       </c>
       <c r="E33" t="n">
-        <v>4.54</v>
+        <v>4.22</v>
       </c>
       <c r="F33" t="n">
-        <v>3.82</v>
+        <v>3.3</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
